--- a/sample.xlsx
+++ b/sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7891a21f98e9c916/Documents/GitHub/pamphlet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isabe\OneDrive\Documents\GitHub\pamphlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28E7A028-BF72-412C-9B6C-6A90B05F9D57}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{28E7A028-BF72-412C-9B6C-6A90B05F9D57}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{BCED1ACE-E889-4748-A35E-CB3BF03B158E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DC2BBA9A-EADA-43C3-8071-EB017BE40D38}"/>
   </bookViews>
@@ -31,21 +31,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>sample</t>
-  </si>
-  <si>
-    <t>spreadsheet</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Mingyan</t>
+  </si>
+  <si>
+    <t>Liu</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>blah</t>
   </si>
 </sst>
 </file>
@@ -397,37 +400,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BCDB1F-DF1C-4BB2-9245-BD2AD26074FB}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
